--- a/data/trans_orig/Q24D_2-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q24D_2-Estudios-trans_orig.xlsx
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,48</t>
+          <t>3,44</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>3,02</t>
+          <t>3,01</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>3,26</t>
+          <t>3,24</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,51; 4,93</t>
+          <t>2,48; 4,9</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,51; 4,07</t>
+          <t>2,49; 3,96</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>2,71; 4,24</t>
+          <t>2,68; 4,19</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,83</t>
+          <t>2,82</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,27 +831,27 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
+          <t>2,79</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>2,47</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>2,64</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>2,47</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
           <t>2,8</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>2,47</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>2,64</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>2,47</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>2,82</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,38; 4,18</t>
+          <t>2,37; 4,06</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,45; 3,21</t>
+          <t>2,44; 3,19</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,55; 3,43</t>
+          <t>2,54; 3,4</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,92</t>
+          <t>2,95</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2,49</t>
+          <t>2,48</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>2,71</t>
+          <t>2,74</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,4; 3,8</t>
+          <t>2,44; 3,89</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,39; 3,15</t>
+          <t>2,42; 3,21</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,95</t>
+          <t>2,94</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>2,79</t>
+          <t>2,78</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>2,87</t>
+          <t>2,86</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,56; 3,8</t>
+          <t>2,56; 3,74</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,52; 3,1</t>
+          <t>2,51; 3,08</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>2,65; 3,34</t>
+          <t>2,65; 3,31</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/Q24D_2-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q24D_2-Estudios-trans_orig.xlsx
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según el número de veces que han intentado dejar de fumar</t>
+          <t>Número medio de veces que han intentado dejar de fumar</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,7; 4,36</t>
+          <t>2,66; 4,21</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,37; 3,1</t>
+          <t>2,37; 3,12</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,06; 2,76</t>
+          <t>2,07; 2,77</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,48; 4,9</t>
+          <t>2,52; 4,93</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,85; 2,57</t>
+          <t>1,82; 2,54</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,84; 2,44</t>
+          <t>1,87; 2,44</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,33; 3,42</t>
+          <t>2,33; 3,36</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,49; 3,96</t>
+          <t>2,47; 4,04</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,51; 3,73</t>
+          <t>2,53; 3,8</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,24; 2,72</t>
+          <t>2,23; 2,69</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>2,26; 2,83</t>
+          <t>2,27; 2,87</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>2,68; 4,19</t>
+          <t>2,67; 4,19</t>
         </is>
       </c>
     </row>
@@ -864,22 +864,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,3; 3,39</t>
+          <t>2,31; 3,45</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,46; 3,24</t>
+          <t>2,47; 3,28</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,33; 2,79</t>
+          <t>2,33; 2,77</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,37; 4,06</t>
+          <t>2,39; 4,22</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -889,17 +889,17 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,33; 2,79</t>
+          <t>2,32; 2,84</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,21; 2,63</t>
+          <t>2,22; 2,62</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,44; 3,19</t>
+          <t>2,49; 3,18</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -909,17 +909,17 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2,46; 2,94</t>
+          <t>2,47; 2,93</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,32; 2,63</t>
+          <t>2,33; 2,62</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,54; 3,4</t>
+          <t>2,54; 3,42</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,88; 2,9</t>
+          <t>1,86; 2,87</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,19; 3,12</t>
+          <t>2,16; 2,96</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,21; 4,13</t>
+          <t>2,23; 4,03</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,44; 3,89</t>
+          <t>2,42; 3,79</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,75; 2,9</t>
+          <t>1,79; 2,99</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,1; 3,06</t>
+          <t>2,13; 3,04</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,82; 3,26</t>
+          <t>1,8; 3,46</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,1; 3,06</t>
+          <t>2,05; 2,97</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,95; 2,71</t>
+          <t>1,95; 2,75</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,22; 2,82</t>
+          <t>2,24; 2,83</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,12; 3,4</t>
+          <t>2,14; 3,38</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,42; 3,21</t>
+          <t>2,39; 3,26</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,51; 3,3</t>
+          <t>2,49; 3,27</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,52; 3,06</t>
+          <t>2,5; 3,04</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,37; 2,78</t>
+          <t>2,36; 2,77</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,56; 3,74</t>
+          <t>2,59; 3,75</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,03; 2,4</t>
+          <t>2,02; 2,37</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,29; 2,65</t>
+          <t>2,28; 2,63</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,27; 2,64</t>
+          <t>2,25; 2,64</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,51; 3,08</t>
+          <t>2,54; 3,11</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,35; 2,83</t>
+          <t>2,36; 2,82</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,45; 2,78</t>
+          <t>2,45; 2,77</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>2,37; 2,65</t>
+          <t>2,36; 2,64</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>2,65; 3,31</t>
+          <t>2,63; 3,25</t>
         </is>
       </c>
     </row>
